--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3519.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3519.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.51768618945913</v>
+        <v>1.675700187683105</v>
       </c>
       <c r="B1">
-        <v>2.602625103341197</v>
+        <v>2.415036916732788</v>
       </c>
       <c r="C1">
-        <v>3.21276211646218</v>
+        <v>2.120635032653809</v>
       </c>
       <c r="D1">
-        <v>3.705171203765388</v>
+        <v>1.763802647590637</v>
       </c>
       <c r="E1">
-        <v>1.799486569629061</v>
+        <v>1.671298623085022</v>
       </c>
     </row>
   </sheetData>
